--- a/CLAGN_outlier_flux_W1.xlsx
+++ b/CLAGN_outlier_flux_W1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciara\Dropbox\University\University Work\Fourth Year\Project\New_project_repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093085F7-3C21-43A5-A383-AEA5308776E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C918C070-F7BD-4BC7-9B14-A1083FDF20EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C39F9C0-EC1E-45A7-A869-AAB69C3080A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>AGN</t>
   </si>
@@ -50,13 +50,10 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>160337.12+242513.9</t>
-  </si>
-  <si>
-    <t>Investigate</t>
-  </si>
-  <si>
-    <t>164725.15+351754.3</t>
+    <t>160337.12+242513.9 - investigate</t>
+  </si>
+  <si>
+    <t>164725.15+351754.3 - investigate</t>
   </si>
 </sst>
 </file>
@@ -440,7 +437,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,17 +461,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
